--- a/urls.xlsx
+++ b/urls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="1628">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -190,16 +190,10 @@
     <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/CORE Reviews schedule sep 2022/index.html</t>
   </si>
   <si>
-    <t xml:space="preserve">ComprehensiveStatement .doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/ComprehensiveStatement .doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ComprehensiveStatement .pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/ComprehensiveStatement .pdf</t>
+    <t xml:space="preserve">ComprehensiveStatement.doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/ComprehensiveStatement.doc</t>
   </si>
   <si>
     <t xml:space="preserve">ComprehensiveStatement.pdf</t>
@@ -532,12 +526,24 @@
     <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/Farmer focus group june 2021/Head_Start_Agriculture_Guam (Proof 2 29_08_2022).pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">Ltr Verification of Service Jesse Bamba 22113.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/Ltr Verification of Service Jesse Bamba 22113.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">NRCS CIG/Package_ALL_new (1) cig.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/NRCS CIG/Package_ALL_new (1) cig.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">NRCS CIG/WPTRC-Tech-Rept-4-ebook.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/NRCS CIG/WPTRC-Tech-Rept-4-ebook.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSEP/Pacific Island Core Manual/220125-PI-Core-1-WEB.zip</t>
   </si>
   <si>
@@ -3982,6 +3988,12 @@
     <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/link_checker_report.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">link_checker_report.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/link_checker_report.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">notes.md</t>
   </si>
   <si>
@@ -4040,6 +4052,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/urls.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urls.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/urls.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">workshops/IPM tomato workshop  7-13-22/IPM and Tomato Virus Workshop Agenda.docx</t>
@@ -4981,7 +4999,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C811"/>
+  <dimension ref="A1:C814"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -13912,6 +13930,39 @@
         <v>1621</v>
       </c>
     </row>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="0" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" s="0" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C812" s="0" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="0" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C813" s="0" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="0" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" s="0" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C814" s="0" t="s">
+        <v>1627</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/urls.xlsx
+++ b/urls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="1628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1648">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -3974,6 +3974,66 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/july 2020 dphss bags/Letter of success from dphss.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latest/DPHSS letter to Jesse Bamba.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/latest/DPHSS letter to Jesse Bamba.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latest/Letter to Dean 1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/latest/Letter to Dean 1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latest/Mail - JESSE P BAMBA - DPHSS.mhtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/latest/Mail - JESSE P BAMBA - DPHSS.mhtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latest/Re_ SARE PROPOSAL NOTIFICATION (1).eml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/latest/Re_ SARE PROPOSAL NOTIFICATION (1).eml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latest/Screenshot Core manual 1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/latest/Screenshot Core manual 1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latest/Screenshot Core manual 2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/latest/Screenshot Core manual 2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latest/Screenshot Core manual 3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/latest/Screenshot Core manual 3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latest/Screenshot Core manual 5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/latest/Screenshot Core manual 5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latest/WPTRC Plant Path Search (2).pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/latest/WPTRC Plant Path Search (2).pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latest/WSARE prposal notification.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aubreymoore/bamba/raw/main/latest/WSARE prposal notification.png</t>
   </si>
   <si>
     <t xml:space="preserve">link_checker.ipynb</t>
@@ -4999,9 +5059,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C814"/>
+  <dimension ref="A1:C824"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="44" zoomScaleNormal="44" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -13963,6 +14023,116 @@
         <v>1627</v>
       </c>
     </row>
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="0" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" s="0" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C815" s="0" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="0" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" s="0" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C816" s="0" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="0" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" s="0" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C817" s="0" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" s="0" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C818" s="0" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="0" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" s="0" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C819" s="0" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="0" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" s="0" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C820" s="0" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="0" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" s="0" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C821" s="0" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="0" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" s="0" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C822" s="0" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="0" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" s="0" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C823" s="0" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="0" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" s="0" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C824" s="0" t="s">
+        <v>1647</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
